--- a/Adwords/关键字Laesr Pointer.xlsx
+++ b/Adwords/关键字Laesr Pointer.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Laser Pointer(主)" sheetId="16" r:id="rId1"/>
     <sheet name="Laser pointer(长尾)" sheetId="9" r:id="rId2"/>
     <sheet name="否定" sheetId="7" r:id="rId3"/>
-    <sheet name="Laser Pointer(原始)" sheetId="1" r:id="rId4"/>
-    <sheet name="长句" sheetId="14" r:id="rId5"/>
-    <sheet name="Laser Pointer (去掉重复)" sheetId="8" r:id="rId6"/>
+    <sheet name="按排序" sheetId="17" r:id="rId4"/>
+    <sheet name="Laser Pointer(原始)" sheetId="1" r:id="rId5"/>
+    <sheet name="长句" sheetId="14" r:id="rId6"/>
+    <sheet name="Laser Pointer (去掉重复)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11178" uniqueCount="3375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11976" uniqueCount="3584">
   <si>
     <t>laser pointer</t>
   </si>
@@ -10198,6 +10199,635 @@
   </si>
   <si>
     <t>laser module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Avg. Monthly Searches (exact match only)</t>
+  </si>
+  <si>
+    <t>laser pen light</t>
+  </si>
+  <si>
+    <t>532nm green laser</t>
+  </si>
+  <si>
+    <t>laser pen pointer</t>
+  </si>
+  <si>
+    <t>500mw laser pointer</t>
+  </si>
+  <si>
+    <t>green laser module</t>
+  </si>
+  <si>
+    <t>green lazer pointer</t>
+  </si>
+  <si>
+    <t>star pointer laser</t>
+  </si>
+  <si>
+    <t>hand laser</t>
+  </si>
+  <si>
+    <t>green laser 100mw</t>
+  </si>
+  <si>
+    <t>phone laser pointer</t>
+  </si>
+  <si>
+    <t>5 megawatt laser</t>
+  </si>
+  <si>
+    <t>laser red</t>
+  </si>
+  <si>
+    <t>green beam laser pointer</t>
+  </si>
+  <si>
+    <t>hand held laser lights</t>
+  </si>
+  <si>
+    <t>laser pointer distance</t>
+  </si>
+  <si>
+    <t>most powerful laser color</t>
+  </si>
+  <si>
+    <t>green astronomy laser</t>
+  </si>
+  <si>
+    <t>laser handheld</t>
+  </si>
+  <si>
+    <t>laser beam for sale</t>
+  </si>
+  <si>
+    <t>best laser pointer for the money</t>
+  </si>
+  <si>
+    <t>laser pointer green beam</t>
+  </si>
+  <si>
+    <t>awesome laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointer for phone</t>
+  </si>
+  <si>
+    <t>portable lasers</t>
+  </si>
+  <si>
+    <t>green laser pens</t>
+  </si>
+  <si>
+    <t>green laser 5mw</t>
+  </si>
+  <si>
+    <t>laser pointer powerful</t>
+  </si>
+  <si>
+    <t>laser indicator</t>
+  </si>
+  <si>
+    <t>laser pointer that stays on</t>
+  </si>
+  <si>
+    <t>red and green laser light</t>
+  </si>
+  <si>
+    <t>laser pointer attachments</t>
+  </si>
+  <si>
+    <t>expensive laser pointer</t>
+  </si>
+  <si>
+    <t>bright green laser</t>
+  </si>
+  <si>
+    <t>hand lasers</t>
+  </si>
+  <si>
+    <t>strongest green laser</t>
+  </si>
+  <si>
+    <t>highest powered laser</t>
+  </si>
+  <si>
+    <t>level laser pointer</t>
+  </si>
+  <si>
+    <t>powerful laser pointers for sale</t>
+  </si>
+  <si>
+    <t>laser light pen pointer</t>
+  </si>
+  <si>
+    <t>blue green laser</t>
+  </si>
+  <si>
+    <t>laser light green</t>
+  </si>
+  <si>
+    <t>lasers green</t>
+  </si>
+  <si>
+    <t>5 milliwatt laser</t>
+  </si>
+  <si>
+    <t>green laser pointer distance</t>
+  </si>
+  <si>
+    <t>hand held laser lights for sale</t>
+  </si>
+  <si>
+    <t>green laser distance</t>
+  </si>
+  <si>
+    <t>green pen laser</t>
+  </si>
+  <si>
+    <t>blue laser pointers for sale</t>
+  </si>
+  <si>
+    <t>green 5mw laser</t>
+  </si>
+  <si>
+    <t>where can i buy a laser</t>
+  </si>
+  <si>
+    <t>the green laser</t>
+  </si>
+  <si>
+    <t>100w laser pointer</t>
+  </si>
+  <si>
+    <t>green laser pointer with patterns</t>
+  </si>
+  <si>
+    <t>where to buy laser pointers in stores</t>
+  </si>
+  <si>
+    <t>coolest laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointer light show</t>
+  </si>
+  <si>
+    <t>colored lasers</t>
+  </si>
+  <si>
+    <t>real lasers for sale</t>
+  </si>
+  <si>
+    <t>really good laser pointers</t>
+  </si>
+  <si>
+    <t>high grade laser pointer</t>
+  </si>
+  <si>
+    <t>pro laser pointer</t>
+  </si>
+  <si>
+    <t>pointing laser</t>
+  </si>
+  <si>
+    <t>2 mile laser pointer</t>
+  </si>
+  <si>
+    <t>10 mile green laser pointer</t>
+  </si>
+  <si>
+    <t>star pointers</t>
+  </si>
+  <si>
+    <t>farthest laser pointer</t>
+  </si>
+  <si>
+    <t>red green blue laser</t>
+  </si>
+  <si>
+    <t>laser pointer wattage</t>
+  </si>
+  <si>
+    <t>really strong laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointer phone</t>
+  </si>
+  <si>
+    <t>color changing laser pointer</t>
+  </si>
+  <si>
+    <t>5mw 532nm green laser pointer distance</t>
+  </si>
+  <si>
+    <t>visible green laser</t>
+  </si>
+  <si>
+    <t>pen laser light</t>
+  </si>
+  <si>
+    <t>laser pointing</t>
+  </si>
+  <si>
+    <t>laser pointeur</t>
+  </si>
+  <si>
+    <t>grüner laserpointer</t>
+  </si>
+  <si>
+    <t>red pointer laser</t>
+  </si>
+  <si>
+    <t>light pointers</t>
+  </si>
+  <si>
+    <t>pointer laser pen</t>
+  </si>
+  <si>
+    <t>green laser pens for sale</t>
+  </si>
+  <si>
+    <t>nice laser pointers</t>
+  </si>
+  <si>
+    <t>where can i buy green laser pointer</t>
+  </si>
+  <si>
+    <t>laser torches for sale</t>
+  </si>
+  <si>
+    <t>strong laser pointer green</t>
+  </si>
+  <si>
+    <t>buy a green laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointer best</t>
+  </si>
+  <si>
+    <t>red light pointer</t>
+  </si>
+  <si>
+    <t>color laser pointers</t>
+  </si>
+  <si>
+    <t>branded laser pointer</t>
+  </si>
+  <si>
+    <t>green laser range</t>
+  </si>
+  <si>
+    <t>pointer green laser</t>
+  </si>
+  <si>
+    <t>strongest handheld laser pointer</t>
+  </si>
+  <si>
+    <t>good quality laser pointer</t>
+  </si>
+  <si>
+    <t>red lasers for sale</t>
+  </si>
+  <si>
+    <t>5 in 1 green laser pointer</t>
+  </si>
+  <si>
+    <t>2 w laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointer pen price</t>
+  </si>
+  <si>
+    <t>5mw green laser pen</t>
+  </si>
+  <si>
+    <t>green laser beam pointer</t>
+  </si>
+  <si>
+    <t>cool lasers for sale</t>
+  </si>
+  <si>
+    <t>pen with light and laser</t>
+  </si>
+  <si>
+    <t>laser pen price</t>
+  </si>
+  <si>
+    <t>4 in 1 laser pointer pen</t>
+  </si>
+  <si>
+    <t>top 10 laser pointers</t>
+  </si>
+  <si>
+    <t>laser pen light show</t>
+  </si>
+  <si>
+    <t>small laser pointers for sale</t>
+  </si>
+  <si>
+    <t>buy powerful laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointing devices</t>
+  </si>
+  <si>
+    <t>3w laser pointer for sale</t>
+  </si>
+  <si>
+    <t>green laser visible beam</t>
+  </si>
+  <si>
+    <t>strongest laser pointer on the market</t>
+  </si>
+  <si>
+    <t>really powerful laser pointer</t>
+  </si>
+  <si>
+    <t>laser pen blue</t>
+  </si>
+  <si>
+    <t>infrared pointer laser</t>
+  </si>
+  <si>
+    <t>laser pointer most powerful</t>
+  </si>
+  <si>
+    <t>level with laser pointer</t>
+  </si>
+  <si>
+    <t>green laser beams</t>
+  </si>
+  <si>
+    <t>3 mw laser pointer</t>
+  </si>
+  <si>
+    <t>laser level pointer</t>
+  </si>
+  <si>
+    <t>strongest laser pointer for sale</t>
+  </si>
+  <si>
+    <t>best green laser pointer for presentations</t>
+  </si>
+  <si>
+    <t>buy strong laser</t>
+  </si>
+  <si>
+    <t>laser pointer burning</t>
+  </si>
+  <si>
+    <t>2 mw laser pen</t>
+  </si>
+  <si>
+    <t>cheap powerful laser pointer</t>
+  </si>
+  <si>
+    <t>where to buy powerful lasers</t>
+  </si>
+  <si>
+    <t>purple laser pointer pen</t>
+  </si>
+  <si>
+    <t>laser pointer cena</t>
+  </si>
+  <si>
+    <t>most powerful laser pointer legal</t>
+  </si>
+  <si>
+    <t>industrial strength laser pointer</t>
+  </si>
+  <si>
+    <t>high powered laser pointer cheap</t>
+  </si>
+  <si>
+    <t>pencil laser pointer</t>
+  </si>
+  <si>
+    <t>3 mile laser pointer</t>
+  </si>
+  <si>
+    <t>good cheap laser pointers</t>
+  </si>
+  <si>
+    <t>400mw laser pointer</t>
+  </si>
+  <si>
+    <t>kids laser pointer</t>
+  </si>
+  <si>
+    <t>amazing laser pointers</t>
+  </si>
+  <si>
+    <t>where to buy green lasers</t>
+  </si>
+  <si>
+    <t>532nm green laser distance</t>
+  </si>
+  <si>
+    <t>best red laser pointer</t>
+  </si>
+  <si>
+    <t>cheap burning lasers for sale</t>
+  </si>
+  <si>
+    <t>lasers pen</t>
+  </si>
+  <si>
+    <t>laser pointer strongest</t>
+  </si>
+  <si>
+    <t>the strongest laser pointer</t>
+  </si>
+  <si>
+    <t>small laser pen</t>
+  </si>
+  <si>
+    <t>stargazer laser pointer</t>
+  </si>
+  <si>
+    <t>handheld laser pointers</t>
+  </si>
+  <si>
+    <t>yellow laser pointer for sale</t>
+  </si>
+  <si>
+    <t>buy cheap laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointers with visible beams</t>
+  </si>
+  <si>
+    <t>where to buy cheap laser pointer</t>
+  </si>
+  <si>
+    <t>shop laser pointer</t>
+  </si>
+  <si>
+    <t>legal laser pointer</t>
+  </si>
+  <si>
+    <t>buy a laser pen</t>
+  </si>
+  <si>
+    <t>really strong laser pointers</t>
+  </si>
+  <si>
+    <t>cost of laser pointer</t>
+  </si>
+  <si>
+    <t>cheap burning laser for sale</t>
+  </si>
+  <si>
+    <t>really strong laser</t>
+  </si>
+  <si>
+    <t>best high powered laser pointer</t>
+  </si>
+  <si>
+    <t>where to buy a good laser pointer</t>
+  </si>
+  <si>
+    <t>big green laser pointer</t>
+  </si>
+  <si>
+    <t>tech laser pointer</t>
+  </si>
+  <si>
+    <t>green laser pointer stars</t>
+  </si>
+  <si>
+    <t>powerful cheap laser pointer</t>
+  </si>
+  <si>
+    <t>where to buy a cheap laser pointer</t>
+  </si>
+  <si>
+    <t>the best laser pointer in the world</t>
+  </si>
+  <si>
+    <t>laser pointer long distance</t>
+  </si>
+  <si>
+    <t>real laser for sale</t>
+  </si>
+  <si>
+    <t>longest range laser pointer</t>
+  </si>
+  <si>
+    <t>green laser 532nm</t>
+  </si>
+  <si>
+    <t>where can i buy a high powered laser pointer</t>
+  </si>
+  <si>
+    <t>best color laser pointer</t>
+  </si>
+  <si>
+    <t>black light laser pen</t>
+  </si>
+  <si>
+    <t>where to buy good laser pointers</t>
+  </si>
+  <si>
+    <t>1 milliwatt laser</t>
+  </si>
+  <si>
+    <t>green laser red light</t>
+  </si>
+  <si>
+    <t>laser pointer legal</t>
+  </si>
+  <si>
+    <t>where to buy powerful laser pointer</t>
+  </si>
+  <si>
+    <t>milliwatt laser</t>
+  </si>
+  <si>
+    <t>biggest laser pointer</t>
+  </si>
+  <si>
+    <t>mw lasers</t>
+  </si>
+  <si>
+    <t>longest laser pointer</t>
+  </si>
+  <si>
+    <t>green laser price</t>
+  </si>
+  <si>
+    <t>long distance green laser pointer</t>
+  </si>
+  <si>
+    <t>laser pointer effects</t>
+  </si>
+  <si>
+    <t>laser pointer 3w</t>
+  </si>
+  <si>
+    <t>grüne laserpointer</t>
+  </si>
+  <si>
+    <t>lasers buy</t>
+  </si>
+  <si>
+    <t>longest distance laser pointer</t>
+  </si>
+  <si>
+    <t>most powerful legal laser pointer</t>
+  </si>
+  <si>
+    <t>high strength laser pointer</t>
+  </si>
+  <si>
+    <t>pointing lasers</t>
+  </si>
+  <si>
+    <t>upgrade laser pointer</t>
+  </si>
+  <si>
+    <t>highest mw laser</t>
+  </si>
+  <si>
+    <t>laser pen range</t>
+  </si>
+  <si>
+    <t>1mw laser pointer distance</t>
+  </si>
+  <si>
+    <t>laser pointer upgrade</t>
+  </si>
+  <si>
+    <t>5mw lasers</t>
+  </si>
+  <si>
+    <t>laser pointer technology</t>
+  </si>
+  <si>
+    <t>laser pointer tv</t>
+  </si>
+  <si>
+    <t>small lasers for sale</t>
+  </si>
+  <si>
+    <t>laser pointer comparison</t>
+  </si>
+  <si>
+    <t>green laser pointer cena</t>
+  </si>
+  <si>
+    <t>lezer pointer</t>
+  </si>
+  <si>
+    <t>super blue laser pointers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightest laser pointer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10243,12 +10873,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -10263,9 +10899,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10641,8 +11283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2629"/>
   <sheetViews>
-    <sheetView topLeftCell="A2419" workbookViewId="0">
-      <selection activeCell="A2435" sqref="A2435"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="A644" sqref="A644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13867,7 +14509,7 @@
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
-        <v>194</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.15">
@@ -22422,7 +23064,7 @@
     </row>
     <row r="2355" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2355" t="s">
-        <v>32</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="2356" spans="1:1" x14ac:dyDescent="0.15">
@@ -23805,8 +24447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24035,6 +24677,6404 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B800"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="45.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>27100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B18" s="2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B19" s="2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B22" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B24" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B25" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B26" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B28" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B32" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B33" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B35" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B36" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B37" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B38" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B45" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B46" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B47" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B50" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B51" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B52" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B53" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B55" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B56" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B59" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B62" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B66" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B67" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B68" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B70" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B71" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B76" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B77" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B82" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B84" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B86" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B88" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B90" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B91" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B93" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B96" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B97" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B98" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B100" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B102" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B103" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B104" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B108" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B109" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B112" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B114" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B118" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B125" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B127" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B129" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B130" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B133" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B134" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B135" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B137" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B139" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B142" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B143" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B146" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B147" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B150" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B151" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B152" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B153" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B154" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B155" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B157" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B158" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B160" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B161" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B162" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B163" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B164" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B165" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B166" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B167" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B168" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B169" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B170" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B171" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B172" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B173" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B174" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B175" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B176" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B177" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B179" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B180" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B181" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B182" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B183" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B185" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B187" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B189" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B190" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B191" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B192" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B193" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B194" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B195" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B196" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B197" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B198" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B199" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B200" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B202" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B203" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B204" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B205" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B206" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B207" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B209" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B210" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B211" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B212" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A213" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B213" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A214" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B214" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B215" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B216" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A217" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B217" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B218" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B219" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A221" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B221" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B223" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B224" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B225" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B226" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B227" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A228" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B228" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B229" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230" s="2" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B230" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B231" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B232" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B233" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B234" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B235" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" s="2" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B236" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B237" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B238" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B239" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B240" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B241" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B242" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B243" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B244" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B245" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B246" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B247" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B248" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B249" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B250" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B251" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B252" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B253" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B254" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B255" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B256" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B257" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B258" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B259" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B260" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B261" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B262" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B263" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B264" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="2" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B265" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B266" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B267" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B268" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B269" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="2" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B270" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B272" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B273" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274" s="2" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B274" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B275" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B276" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B277" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278" s="2" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B278" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B279" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B280" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B281" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B282" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B283" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B284" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B285" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B286" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B287" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B288" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B289" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B290" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B291" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B292" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="2" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B293" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B294" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B295" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B296" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B297" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B298" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B299" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B300" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A302" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B302" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A303" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B303" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B304" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A305" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B305" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B306" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A308" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B308" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A309" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B309" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A310" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B310" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A311" s="2" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B311" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A312" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B312" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A313" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B313" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A314" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B314" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A315" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B315" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A316" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B316" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A317" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B317" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A318" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B318" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A319" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B319" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A320" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B320" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A321" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B321" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A322" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B322" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A323" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B323" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A324" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B324" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A325" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B325" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A326" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B326" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A327" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B327" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A328" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B328" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A329" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B329" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A330" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B330" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A331" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B331" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A332" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B332" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A333" s="2" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B333" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A334" s="2" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B334" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A335" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B335" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A336" s="2" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B336" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A337" s="2" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B337" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A338" s="2" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B338" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A339" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B339" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A340" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B340" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A341" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B341" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A342" s="2" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B342" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A343" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B343" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A344" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B344" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A345" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B345" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A346" s="2" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B346" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A347" s="2" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B347" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A348" s="2" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B348" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A349" s="2" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B349" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A350" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B350" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A351" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A352" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B352" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A353" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B353" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A354" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B354" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A355" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A356" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B356" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A357" s="2" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B357" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A358" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B358" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A359" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B359" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A360" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B360" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A361" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B361" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A362" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B362" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A363" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B363" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A364" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B364" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A365" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B365" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A366" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B366" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A367" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B367" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A368" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B368" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A369" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B369" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A370" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B370" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A371" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B371" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A372" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B372" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A373" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B373" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A374" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B374" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A375" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B375" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A376" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B376" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A377" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B377" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A378" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B378" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A379" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B379" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A380" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B380" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A381" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B381" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A382" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B382" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A383" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B383" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A384" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B384" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A385" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B385" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A386" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B386" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A387" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B387" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A388" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B388" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A389" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B389" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A390" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B390" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A391" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B391" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A392" s="2" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B392" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A393" s="2" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B393" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A394" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B394" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A395" s="2" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B395" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A396" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B396" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A397" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B397" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A398" s="2" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B398" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A399" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B399" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A400" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B400" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A401" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B401" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A402" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B402" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A403" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B403" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A404" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B404" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A405" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B405" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A406" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B406" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A407" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B407" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A408" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B408" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A409" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B409" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A410" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B410" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A411" s="2" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B411" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A412" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B412" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A413" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B413" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A414" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B414" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A415" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B415" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A416" s="2" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B416" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A417" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B417" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A418" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B418" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A419" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B419" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A420" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B420" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A421" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B421" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A422" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B422" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A423" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B423" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A424" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B424" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A425" s="2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B425" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A426" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B426" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A427" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B427" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A428" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B428" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A429" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B429" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A430" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B430" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A431" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B431" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A432" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B432" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A433" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B433" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A434" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B434" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A435" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B435" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A436" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B436" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A437" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B437" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A438" s="2" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B438" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A439" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B439" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A440" s="2" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B440" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A441" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B441" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A442" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B442" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A443" s="2" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B443" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A444" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B444" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A445" s="2" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B445" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A446" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B446" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A447" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B447" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A448" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B448" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A449" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B449" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A450" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B450" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A451" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B451" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A452" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B452" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A453" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B453" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A454" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B454" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A455" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B455" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A456" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B456" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A457" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B457" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A458" s="2" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B458" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A459" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B459" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A460" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B460" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A461" s="2" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B461" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A462" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B462" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A463" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B463" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A464" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B464" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A465" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B465" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A466" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B466" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A467" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B467" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A468" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B468" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A469" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B469" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A470" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B470" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A471" s="2" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B471" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A472" s="2" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B472" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A473" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B473" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A474" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B474" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A475" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B475" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A476" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B476" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A477" s="2" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B477" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A478" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B478" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A479" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B479" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A480" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B480" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A481" s="2" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B481" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A482" s="2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B482" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A483" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B483" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A484" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B484" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A485" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B485" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A486" s="2" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B486" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A487" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B487" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A488" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B488" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A489" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B489" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A490" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B490" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A491" s="2" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B491" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A492" s="2" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B492" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A493" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B493" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A494" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B494" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A495" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B495" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A496" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B496" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A497" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B497" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A498" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B498" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A499" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B499" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A500" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B500" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A501" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B501" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A502" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B502" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A503" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B503" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A504" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B504" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A505" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B505" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A506" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B506" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A507" s="2" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B507" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A508" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B508" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A509" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B509" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A510" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B510" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A511" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B511" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A512" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B512" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A513" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B513" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A514" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B514" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A515" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B515" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A516" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B516" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A517" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B517" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A518" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B518" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A519" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B519" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A520" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B520" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A521" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B521" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A522" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B522" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A523" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B523" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A524" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B524" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A525" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B525" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A526" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B526" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A527" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B527" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A528" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B528" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A529" s="2" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B529" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A530" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B530" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A531" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B531" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A532" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B532" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A533" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B533" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A534" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B534" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A535" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B535" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A536" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B536" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A537" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B537" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A538" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B538" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A539" s="2" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B539" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A540" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B540" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A541" s="2" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B541" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A542" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B542" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A543" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B543" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A544" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B544" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A545" s="2" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B545" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A546" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B546" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A547" s="2" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B547" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A548" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B548" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A549" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B549" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A550" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B550" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A551" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B551" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A552" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B552" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A553" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B553" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A554" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B554" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A555" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B555" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A556" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B556" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A557" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B557" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A558" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B558" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A559" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B559" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A560" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B560" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A561" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B561" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A562" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B562" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A563" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B563" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A564" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B564" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A565" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B565" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A566" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B566" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A567" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B567" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A568" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B568" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A569" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B569" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A570" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B570" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A571" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B571" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A572" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B572" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A573" s="2" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B573" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A574" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B574" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A575" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B575" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A576" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B576" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A577" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B577" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A578" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B578" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A579" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B579" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A580" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B580" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A581" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B581" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A582" s="2" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B582" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A583" s="2" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B583" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A584" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B584" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A585" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B585" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A586" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B586" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A587" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B587" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A588" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B588" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A589" s="2" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B589" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A590" s="2" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B590" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A591" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B591" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A592" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B592" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A593" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B593" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A594" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B594" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A595" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B595" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A596" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B596" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A597" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B597" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A598" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B598" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A599" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B599" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A600" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B600" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A601" s="2" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B601" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A602" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B602" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A603" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B603" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A604" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B604" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A605" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B605" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A606" s="2" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B606" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A607" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B607" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A608" s="2" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B608" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A609" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B609" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A610" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B610" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A611" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B611" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A612" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B612" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A613" s="2" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B613" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A614" s="2" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B614" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A615" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B615" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A616" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B616" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A617" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B617" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A618" s="2" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B618" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A619" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B619" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A620" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B620" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A621" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B621" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A622" s="2" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B622" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A623" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B623" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A624" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B624" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A625" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B625" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A626" s="2" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B626" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A627" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B627" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A628" s="2" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B628" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A629" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B629" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A630" s="2" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B630" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A631" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B631" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A632" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B632" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A633" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B633" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A634" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B634" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A635" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B635" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A636" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B636" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A637" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B637" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A638" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B638" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A639" s="2" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B639" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A640" s="2" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B640" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A641" s="2" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B641" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A642" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B642" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A643" s="2" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B643" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A644" s="2" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B644" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A645" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B645" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A646" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B646" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A647" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B647" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A648" s="2" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B648" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A649" s="2" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B649" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A650" s="2" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B650" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A651" s="2" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B651" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A652" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B652" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A653" s="2" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B653" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A654" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B654" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A655" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B655" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A656" s="2" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B656" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A657" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B657" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A658" s="2" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B658" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A659" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B659" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A660" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B660" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A661" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B661" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A662" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B662" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A663" s="2" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B663" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A664" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B664" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A665" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B665" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A666" s="2" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B666" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A667" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B667" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A668" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B668" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A669" s="2" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B669" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A670" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B670" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A671" s="2" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B671" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A672" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B672" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A673" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B673" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A674" s="2" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B674" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A675" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B675" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A676" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B676" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A677" s="2" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B677" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A678" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B678" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A679" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B679" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A680" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B680" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A681" s="2" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B681" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A682" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B682" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A683" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B683" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A684" s="2" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B684" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A685" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B685" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A686" s="2" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B686" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A687" s="2" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B687" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A688" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B688" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A689" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B689" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A690" s="2" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B690" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A691" s="2" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B691" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A692" s="2" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B692" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A693" s="2" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B693" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A694" s="2" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B694" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A695" s="2" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B695" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A696" s="2" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B696" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A697" s="2" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B697" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A698" s="2" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B698" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A699" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B699" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A700" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B700" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A701" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B701" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A702" s="2" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B702" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A703" s="2" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B703" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A704" s="2" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B704" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A705" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B705" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A706" s="2" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B706" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A707" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B707" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A708" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B708" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A709" s="2" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B709" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A710" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B710" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A711" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B711" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A712" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B712" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A713" s="2" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B713" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A714" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B714" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A715" s="2" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B715" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A716" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B716" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A717" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B717" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A718" s="2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B718" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A719" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B719" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A720" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B720" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A721" s="2" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B721" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A722" s="2" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B722" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A723" s="2" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B723" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A724" s="2" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B724" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A725" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B725" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A726" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B726" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A727" s="2" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B727" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A728" s="2" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B728" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A729" s="2" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B729" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A730" s="2" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B730" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A731" s="2" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B731" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A732" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B732" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A733" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B733" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A734" s="2" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B734" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A735" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B735" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A736" s="2" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B736" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A737" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B737" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A738" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B738" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A739" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B739" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A740" s="2" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B740" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A741" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B741" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A742" s="2" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B742" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A743" s="2" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B743" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A744" s="2" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B744" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A745" s="2" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B745" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A746" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B746" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A747" s="2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B747" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A748" s="2" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B748" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A749" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B749" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A750" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B750" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A751" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B751" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A752" s="2" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B752" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A753" s="2" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B753" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A754" s="2" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B754" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A755" s="2" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B755" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A756" s="2" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B756" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A757" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B757" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A758" s="2" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B758" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A759" s="2" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B759" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A760" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B760" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A761" s="2" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B761" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A762" s="2" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B762" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A763" s="2" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B763" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A764" s="2" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B764" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A765" s="2" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B765" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A766" s="2" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B766" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A767" s="2" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B767" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A768" s="2" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B768" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A769" s="2" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B769" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A770" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B770" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A771" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B771" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A772" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B772" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A773" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B773" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A774" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B774" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A775" s="2" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B775" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A776" s="2" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B776" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A777" s="2" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B777" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A778" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B778" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A779" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B779" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A780" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B780" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A781" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B781" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A782" s="2" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B782" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A783" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B783" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A784" s="2" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B784" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A785" s="2" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B785" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A786" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B786" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A787" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B787" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A788" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B788" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A789" s="2" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B789" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A790" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B790" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A791" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B791" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A792" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B792" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A793" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B793" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A794" s="2" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B794" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A795" s="2" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B795" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A796" s="2" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B796" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A797" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B797" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A798" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B798" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A799" s="2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B799" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A800" s="2" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B800" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5538"/>
   <sheetViews>
@@ -51746,7 +58786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
@@ -51960,7 +59000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2920"/>
   <sheetViews>

--- a/Adwords/关键字Laesr Pointer.xlsx
+++ b/Adwords/关键字Laesr Pointer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Laser Pointer(主)" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11976" uniqueCount="3584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11976" uniqueCount="3590">
   <si>
     <t>laser pointer</t>
   </si>
@@ -10828,6 +10828,30 @@
   </si>
   <si>
     <t>brightest laser pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>most powerful laser pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high power laser pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high powered laser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burning laser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>best laser pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat laser pointer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11283,8 +11307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="A644" sqref="A644"/>
+    <sheetView topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="A632" sqref="A632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24680,9 +24704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B800"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24741,7 +24765,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>885</v>
+        <v>3585</v>
       </c>
       <c r="B7" s="2">
         <v>2400</v>
@@ -24749,7 +24773,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>855</v>
+        <v>3586</v>
       </c>
       <c r="B8" s="2">
         <v>2400</v>
@@ -24765,7 +24789,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>3587</v>
       </c>
       <c r="B10" s="2">
         <v>1900</v>
@@ -24805,7 +24829,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>871</v>
+        <v>3588</v>
       </c>
       <c r="B15" s="2">
         <v>1000</v>
@@ -24869,7 +24893,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>3589</v>
       </c>
       <c r="B23" s="2">
         <v>720</v>
@@ -24885,7 +24909,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>862</v>
+        <v>3584</v>
       </c>
       <c r="B25" s="2">
         <v>590</v>
@@ -31079,7 +31103,7 @@
   <dimension ref="A1:A5538"/>
   <sheetViews>
     <sheetView topLeftCell="A5303" workbookViewId="0">
-      <selection activeCell="A5291" sqref="A1:A1048576"/>
+      <selection activeCell="E5332" sqref="E5332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
